--- a/files/IMCV_pca.xlsx
+++ b/files/IMCV_pca.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davpero/ine_sg_difusion_explica_datasets/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915177DD-7A1F-874B-875B-0E8F1A3B816C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C15F9A0-3636-C34A-BC3F-CACC6628507C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="540" windowWidth="28800" windowHeight="16760" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="16760" xr2:uid="{AD86AC28-63F1-4310-9350-8022FFDE3A23}"/>
   </bookViews>
   <sheets>
     <sheet name="Descripción" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="120">
   <si>
     <t>CCAA</t>
   </si>
@@ -195,85 +195,7 @@
     <t>Municipios</t>
   </si>
   <si>
-    <t>Seccion</t>
-  </si>
-  <si>
-    <t>Personas</t>
-  </si>
-  <si>
-    <t>Hogares</t>
-  </si>
-  <si>
-    <t>Empresas</t>
-  </si>
-  <si>
-    <t>CNAE</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>Ocupación</t>
-  </si>
-  <si>
-    <t>Empleo Relación</t>
-  </si>
-  <si>
-    <t>Edad</t>
-  </si>
-  <si>
-    <t>Estudios</t>
-  </si>
-  <si>
-    <t>Agricultura y medio ambiente</t>
-  </si>
-  <si>
-    <t>Ciencia y tecnología</t>
-  </si>
-  <si>
     <t>Demografía y población</t>
-  </si>
-  <si>
-    <t>Economía</t>
-  </si>
-  <si>
-    <t>Industria, energía y construcción</t>
-  </si>
-  <si>
-    <t>Mercado laboral</t>
-  </si>
-  <si>
-    <t>Servicios</t>
-  </si>
-  <si>
-    <t>Nivel y condiciones de vida</t>
-  </si>
-  <si>
-    <t>Sociedad</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Contabilidad</t>
-  </si>
-  <si>
-    <t>EPA</t>
-  </si>
-  <si>
-    <t>IPC</t>
-  </si>
-  <si>
-    <t>EPF</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa discreta</t>
-  </si>
-  <si>
-    <t>Variable cuantitativa continua</t>
-  </si>
-  <si>
-    <t>Variable cualitativa</t>
   </si>
   <si>
     <r>
@@ -304,33 +226,6 @@
     </r>
   </si>
   <si>
-    <t>ECV</t>
-  </si>
-  <si>
-    <t>Regresión lineal</t>
-  </si>
-  <si>
-    <t>Regresión logística</t>
-  </si>
-  <si>
-    <t>Análisis de componentes principales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Series temporales univariantes </t>
-  </si>
-  <si>
-    <t>Series temporales multivariantes</t>
-  </si>
-  <si>
-    <t>Análisis clúster</t>
-  </si>
-  <si>
-    <t>Análisis factorial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Análisis descriptivo </t>
-  </si>
-  <si>
     <t>Enlace a datos</t>
   </si>
   <si>
@@ -365,12 +260,6 @@
   </si>
   <si>
     <t>dim9</t>
-  </si>
-  <si>
-    <t>Análisis Discriminante</t>
-  </si>
-  <si>
-    <t>IMCV_pca</t>
   </si>
   <si>
     <r>
@@ -472,12 +361,171 @@
       <t>4.Interpretar componentes y resultados.</t>
     </r>
   </si>
+  <si>
+    <t>Tipo de Análisis</t>
+  </si>
+  <si>
+    <t>Tema</t>
+  </si>
+  <si>
+    <t>Agricultura, ganadería, selvicultura y caza</t>
+  </si>
+  <si>
+    <t>Pesca y acuicultura</t>
+  </si>
+  <si>
+    <t>Medio ambiente y desarrollo sostenible</t>
+  </si>
+  <si>
+    <t>Extracción de productos energéticos y energía en general</t>
+  </si>
+  <si>
+    <t>Minería e industria</t>
+  </si>
+  <si>
+    <t>Construcción y vivienda</t>
+  </si>
+  <si>
+    <t>Servicios (estadísticas generales)</t>
+  </si>
+  <si>
+    <t>Comercio interior y exterior</t>
+  </si>
+  <si>
+    <t>Transporte y actividades conexas</t>
+  </si>
+  <si>
+    <t>Estadísticas de empresas y unidades de producción no referidas a sectores particulares</t>
+  </si>
+  <si>
+    <t>Financieras y seguros</t>
+  </si>
+  <si>
+    <t>Precios</t>
+  </si>
+  <si>
+    <t>Mercado laboral y salarios</t>
+  </si>
+  <si>
+    <t>Cuentas económicas</t>
+  </si>
+  <si>
+    <t>Administraciones públicas y asociaciones</t>
+  </si>
+  <si>
+    <t>Tecnologías de la información y las comunicaciones (TIC)</t>
+  </si>
+  <si>
+    <t>Hostelería y turismo</t>
+  </si>
+  <si>
+    <t>Cultura, deporte y ocio</t>
+  </si>
+  <si>
+    <t>Educación y formación</t>
+  </si>
+  <si>
+    <t>Investigación científica y desarrollo tecnológico</t>
+  </si>
+  <si>
+    <t>Salud</t>
+  </si>
+  <si>
+    <t>Protección social y servicios sociales</t>
+  </si>
+  <si>
+    <t>Seguridad y justicia</t>
+  </si>
+  <si>
+    <t>Nivel, calidad y condiciones de vida</t>
+  </si>
+  <si>
+    <t>Estadísticas no desglosables por sector o tema</t>
+  </si>
+  <si>
+    <t>Normalización y metodología general</t>
+  </si>
+  <si>
+    <t>Estadística Experimental</t>
+  </si>
+  <si>
+    <t>Variable Respuesta</t>
+  </si>
+  <si>
+    <t>Contiene variables</t>
+  </si>
+  <si>
+    <t>Técnica de Estudio</t>
+  </si>
+  <si>
+    <t>Regresión Logística</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: LDA</t>
+  </si>
+  <si>
+    <t>Análisis Discriminante: QDA</t>
+  </si>
+  <si>
+    <t>Operaciones Estadísticas</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Sección</t>
+  </si>
+  <si>
+    <t>Cuantitativa Discreta</t>
+  </si>
+  <si>
+    <t>Cuantitativa Continua</t>
+  </si>
+  <si>
+    <t>Cualitativa Binaria</t>
+  </si>
+  <si>
+    <t>Cualitativa Politómica</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Simple</t>
+  </si>
+  <si>
+    <t>Regresión Lineal Múltiple</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Componentes principales</t>
+  </si>
+  <si>
+    <t>Reducción Dimensión: Análisis Factorial</t>
+  </si>
+  <si>
+    <t>Cluster Jerárquico</t>
+  </si>
+  <si>
+    <t>Cluster K-Means</t>
+  </si>
+  <si>
+    <t>Series Temporales ARIMA</t>
+  </si>
+  <si>
+    <t>Series Temporales Holt Winters</t>
+  </si>
+  <si>
+    <t>Series Temporales VEC</t>
+  </si>
+  <si>
+    <t>Desagregación Territorial</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,8 +591,31 @@
       <color theme="0"/>
       <name val="Calibri (Cuerpo)"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,24 +625,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,6 +652,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E2F7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD6DDE4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAEAAAA"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -806,7 +913,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -815,27 +922,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -875,6 +961,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -901,6 +1027,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1222,176 +1372,176 @@
   <dimension ref="B1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="35"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="40"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="40"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="40"/>
     </row>
     <row r="11" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
     </row>
     <row r="12" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34"/>
+      <c r="B13" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="40"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="35"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" s="35"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1420,34 +1570,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>97</v>
+        <v>62</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>91</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -2181,7 +2331,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2198,290 +2348,290 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D1" s="27" t="s">
+      <c r="C1" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="31" t="s">
-        <v>89</v>
+      <c r="H1" s="18" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="21" t="s">
+      <c r="D2" s="12"/>
+      <c r="E2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="23" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="8"/>
+      <c r="H3" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="F4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="23" t="s">
+      <c r="G4" s="8"/>
+      <c r="H4" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="23" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="23" t="s">
+      <c r="G6" s="8"/>
+      <c r="H6" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="23" t="s">
+      <c r="G7" s="8"/>
+      <c r="H7" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="23" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="23" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="23" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="23" t="s">
+      <c r="G11" s="8"/>
+      <c r="H11" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="33" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="24" t="s">
+      <c r="G12" s="9"/>
+      <c r="H12" s="11" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2491,6 +2641,8 @@
     <hyperlink ref="H3" r:id="rId1" xr:uid="{44FDB455-F82B-40C3-A566-13D401A0D89D}"/>
     <hyperlink ref="H4:H12" r:id="rId2" display="https://www.ine.es/experimental/imcv/experimental_ind_multi_calidad_vida.htm " xr:uid="{8627F0C6-740F-43FA-896E-27A4C68864E3}"/>
     <hyperlink ref="H2" r:id="rId3" xr:uid="{E8459C6F-BBFC-254F-8F2A-9DFE6A9DFE58}"/>
+    <hyperlink ref="F2" r:id="rId4" xr:uid="{50ADE7C2-2BC9-4D4F-B479-643920E0D783}"/>
+    <hyperlink ref="F3:F12" r:id="rId5" display="Estadística experimental " xr:uid="{44BBAB23-5F9F-C749-B305-BBED4493AC1D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2498,388 +2650,611 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140220C2-D072-4C73-A23A-56941A369515}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="18"/>
-    <col min="3" max="16384" width="17.5" style="1"/>
+    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1"/>
+    <col min="3" max="3" width="9.1640625" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="16.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="45"/>
+      <c r="B4" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="45"/>
+      <c r="B5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="46"/>
+      <c r="B7" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="46"/>
+      <c r="B8" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="46"/>
+      <c r="B9" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="46"/>
+      <c r="B10" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="47"/>
+      <c r="B12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="47"/>
+      <c r="B13" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="47"/>
+      <c r="B14" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="47"/>
+      <c r="B15" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="47"/>
+      <c r="B16" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="47"/>
+      <c r="B17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="47"/>
+      <c r="B18" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="47"/>
+      <c r="B19" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="47"/>
+      <c r="B21" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="47"/>
+      <c r="B22" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="47"/>
+      <c r="B23" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="47"/>
+      <c r="B24" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="47"/>
+      <c r="B25" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="47"/>
+      <c r="B26" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="47"/>
+      <c r="B27" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="47"/>
+      <c r="B28" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="47"/>
+      <c r="B29" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="47"/>
+      <c r="B30" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="47"/>
+      <c r="B31" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="47"/>
+      <c r="B32" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="47"/>
+      <c r="B33" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="47"/>
+      <c r="B34" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="47"/>
+      <c r="B35" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="47"/>
+      <c r="B36" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="47"/>
+      <c r="B37" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="47"/>
+      <c r="B38" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="48"/>
+      <c r="B40" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="48"/>
+      <c r="B41" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="48"/>
+      <c r="B42" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="B43" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="49"/>
+      <c r="B44" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="C44" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="49"/>
+      <c r="B45" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="49"/>
+      <c r="B46" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C46" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A48" s="44"/>
+      <c r="B48" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="44"/>
+      <c r="B49" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="44"/>
+      <c r="B50" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="44"/>
+      <c r="B51" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="44"/>
+      <c r="B52" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A53" s="44"/>
+      <c r="B53" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="44"/>
+      <c r="B54" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="44"/>
+      <c r="B55" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C55" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="44"/>
+      <c r="B56" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" s="44"/>
+      <c r="B57" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A58" s="44"/>
+      <c r="B58" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="50" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C59" s="20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="9">
+      <c r="B60" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="19">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B39" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B42" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B43" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B44" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="18">
-        <v>0</v>
-      </c>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A47:A58"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="A11:A38"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
